--- a/file_export/huu_tri/Danh sach can bo sap nghi huu.xlsx
+++ b/file_export/huu_tri/Danh sach can bo sap nghi huu.xlsx
@@ -15,16 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
-  <si>
-    <t xml:space="preserve">BAN CHẤP HÀNH TRUNG ƯƠNG 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+  <si>
+    <t>BỘ GIAO THÔNG VẬN TẢI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GIAO THÔNG VẬN TẢI
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ĐOÀN TNCS HỒ CHÍ MINH
-</t>
-  </si>
-  <si>
     <t>***</t>
   </si>
   <si>
@@ -94,22 +93,199 @@
     <t>10</t>
   </si>
   <si>
-    <t>Mẫn Việt Dũng</t>
-  </si>
-  <si>
-    <t>15-12-1940</t>
-  </si>
-  <si>
-    <t>Chức vụ - Ban Kiểm tra Trung ương Đoàn</t>
-  </si>
-  <si>
-    <t>2.25 - 123123</t>
-  </si>
-  <si>
-    <t>Lê Khánh Trình</t>
-  </si>
-  <si>
-    <t>15-12-1945</t>
+    <t xml:space="preserve">NGUYỄN VĂN HẢI					</t>
+  </si>
+  <si>
+    <t>05-01-1957</t>
+  </si>
+  <si>
+    <t>Tổ Xe máy - Bảo vệ - Phòng Hành chính - Quản trị - CƠ SỞ ĐÀO TẠO HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Nhân viên kỹ thuật</t>
+  </si>
+  <si>
+    <t>05-01-2017</t>
+  </si>
+  <si>
+    <t>01-02-2017</t>
+  </si>
+  <si>
+    <t>Hưu 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Mơ					</t>
+  </si>
+  <si>
+    <t>04-02-1962</t>
+  </si>
+  <si>
+    <t>Kỹ thuật viên đánh máy</t>
+  </si>
+  <si>
+    <t>04-02-2017</t>
+  </si>
+  <si>
+    <t>08-04-2017</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HÀ ĐỨC HẢO					</t>
+  </si>
+  <si>
+    <t>22-03-1957</t>
+  </si>
+  <si>
+    <t>Xưởng Công trình - Khoa Công trình. - CƠ SỞ ĐÀO TẠO VĨNH PHÚC</t>
+  </si>
+  <si>
+    <t>Giáo viên trung học</t>
+  </si>
+  <si>
+    <t>22-03-2017</t>
+  </si>
+  <si>
+    <t>Lương Mạnh Tiến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phó Trưởng bộ môn - </t>
+  </si>
+  <si>
+    <t>Giảng viên chính</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHẠM THỊ THÊM					</t>
+  </si>
+  <si>
+    <t>10-04-1962</t>
+  </si>
+  <si>
+    <t>Nhân viên phục vụ</t>
+  </si>
+  <si>
+    <t>10-04-2017</t>
+  </si>
+  <si>
+    <t>Lý do 1</t>
+  </si>
+  <si>
+    <t>Trần Văn Bình</t>
+  </si>
+  <si>
+    <t>22-04-1957</t>
+  </si>
+  <si>
+    <t>Chủ tịch Công đoàn - CƠ SỞ ĐÀO TẠO HÀ NỘI</t>
+  </si>
+  <si>
+    <t>22-04-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Kim Vân					</t>
+  </si>
+  <si>
+    <t>04-06-1962</t>
+  </si>
+  <si>
+    <t>Bộ môn Khoa học cơ bản - CƠ SỞ ĐÀO TẠO THÁI NGUYÊN</t>
+  </si>
+  <si>
+    <t>Giảng viên</t>
+  </si>
+  <si>
+    <t>04-06-2017</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Chỉnh</t>
+  </si>
+  <si>
+    <t>08-09-1957</t>
+  </si>
+  <si>
+    <t>Giám đôc-bí thư chi bộ TT dịch vụ đời sống - Ký túc xá - Trung tâm Dịch vụ Đời sống - CƠ SỞ ĐÀO TẠO HÀ NỘI</t>
+  </si>
+  <si>
+    <t>08-09-2017</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thúy Hằng</t>
+  </si>
+  <si>
+    <t>22-09-1962</t>
+  </si>
+  <si>
+    <t>Tổ Cơ Khí - Điện - Trung tâm Công nghệ Cơ khí - CƠ SỞ ĐÀO TẠO HÀ NỘI</t>
+  </si>
+  <si>
+    <t>Giáo viên trung học cao cấp</t>
+  </si>
+  <si>
+    <t>22-09-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Văn Dậu					</t>
+  </si>
+  <si>
+    <t>06-10-1957</t>
+  </si>
+  <si>
+    <t>Phó trưởng phòng 					 - Tổ Hành chính - Văn thư - Phòng Hành chính - Quản trị. - CƠ SỞ ĐÀO TẠO VĨNH PHÚC</t>
+  </si>
+  <si>
+    <t>Chuyên viên</t>
+  </si>
+  <si>
+    <t>06-10-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐOÀN THỊ HƯƠNG					</t>
+  </si>
+  <si>
+    <t>11-10-1962</t>
+  </si>
+  <si>
+    <t>Tổ Ký túc xá - Trung tâm Dịch vụ Đời sống. - CƠ SỞ ĐÀO TẠO VĨNH PHÚC</t>
+  </si>
+  <si>
+    <t>11-10-2017</t>
+  </si>
+  <si>
+    <t>Trần Thái Minh</t>
+  </si>
+  <si>
+    <t>30-10-1957</t>
+  </si>
+  <si>
+    <t>Phó Trưởng khoa, phụ trách khoa - Bộ môn Toán - Khoa Khoa học cơ bản - CƠ SỞ ĐÀO TẠO HÀ NỘI</t>
+  </si>
+  <si>
+    <t>30-10-2017</t>
+  </si>
+  <si>
+    <t>ĐẶNG AN DƯƠNG</t>
+  </si>
+  <si>
+    <t>Chi ủy viên chi bộ Khoa Cơ khí,Tổ trưởng tổ môn - Tổ văn phòng - Trung tâm Công nghệ Cơ khí - CƠ SỞ ĐÀO TẠO HÀ NỘI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triệu Thị Phương			</t>
+  </si>
+  <si>
+    <t>26-12-1962</t>
+  </si>
+  <si>
+    <t>Tổ Hành chính - Quản trị - Phòng Hành chính Quản trị - CƠ SỞ ĐÀO TẠO THÁI NGUYÊN</t>
+  </si>
+  <si>
+    <t>Y sỹ</t>
+  </si>
+  <si>
+    <t>26-12-2017</t>
   </si>
 </sst>
 </file>
@@ -117,7 +293,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -163,15 +339,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -262,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -287,15 +454,39 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="49" fillId="3" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -317,32 +508,11 @@
     <xf xfId="0" fontId="2" numFmtId="49" fillId="3" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -653,146 +823,146 @@
     <tabColor rgb="FF00B0F0"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="17.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="17.25" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="true" style="19"/>
-    <col min="2" max="2" width="21.5" customWidth="true" style="18"/>
-    <col min="3" max="3" width="10.75" customWidth="true" style="26"/>
-    <col min="4" max="4" width="10.75" customWidth="true" style="26"/>
-    <col min="5" max="5" width="30.125" customWidth="true" style="21"/>
-    <col min="6" max="6" width="11" customWidth="true" style="21"/>
-    <col min="7" max="7" width="11" customWidth="true" style="26"/>
-    <col min="8" max="8" width="11" customWidth="true" style="26"/>
-    <col min="9" max="9" width="11" customWidth="true" style="26"/>
-    <col min="10" max="10" width="11" customWidth="true" style="22"/>
-    <col min="11" max="11" width="11.5" customWidth="true" style="19"/>
-    <col min="12" max="12" width="9" customWidth="true" style="19"/>
+    <col min="1" max="1" width="3.88671875" customWidth="true" style="9"/>
+    <col min="2" max="2" width="21.44140625" customWidth="true" style="8"/>
+    <col min="3" max="3" width="10.77734375" customWidth="true" style="16"/>
+    <col min="4" max="4" width="10.77734375" customWidth="true" style="16"/>
+    <col min="5" max="5" width="30.109375" customWidth="true" style="11"/>
+    <col min="6" max="6" width="11" customWidth="true" style="11"/>
+    <col min="7" max="7" width="11" customWidth="true" style="16"/>
+    <col min="8" max="8" width="11" customWidth="true" style="16"/>
+    <col min="9" max="9" width="11" customWidth="true" style="16"/>
+    <col min="10" max="10" width="11" customWidth="true" style="12"/>
+    <col min="11" max="11" width="11.44140625" customWidth="true" style="9"/>
+    <col min="12" max="12" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" customHeight="1" ht="17.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="F1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:12" customHeight="1" ht="17.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:12" customHeight="1" ht="42.75">
-      <c r="C3" s="23"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="18">
-        <v>2014</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="8">
+        <v>2017</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:12" customHeight="1" ht="22.5">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" customHeight="1" ht="29.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:12" customHeight="1" ht="14.25" s="5" customFormat="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -800,45 +970,349 @@
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="27">
+      <c r="A8" s="28">
         <v>2</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>29</v>
+      <c r="B8" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="6"/>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="28">
+        <v>3</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="28">
+        <v>4</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="28">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="28">
+        <v>6</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="28">
+        <v>7</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="28">
+        <v>8</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="28">
+        <v>9</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="28">
+        <v>10</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="28">
+        <v>11</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="28">
+        <v>12</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="28">
+        <v>13</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="28">
+        <v>14</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
